--- a/impactbasedtesting/results/coverage_reports/coverage_test_LaunchApplication.xlsx
+++ b/impactbasedtesting/results/coverage_reports/coverage_test_LaunchApplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,67 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Function</t>
+          <t>Method</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>"Multiple Conditions %"</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>"Manual Validations"</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Prototype</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>File_Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Absolute Path</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Executed Instrumentations</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Manually Validated Instrumentations</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Count of Instrumentations</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eLOC - Effective Lines of Code</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>McCabe - Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Coverage_Percentage</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>"Manual Validations"</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Position</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>File_Name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Absolute Path</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Executed Instrumentations</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Manually Validated Instrumentations</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Count of Instrumentations</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>eLOC - Effective Lines of Code</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>McCabe - Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Scenario</t>
         </is>
       </c>
     </row>
@@ -561,6 +566,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,6 +631,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -685,6 +696,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N4" t="n">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -747,6 +761,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -809,6 +826,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -871,6 +891,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -933,6 +956,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -995,6 +1021,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1057,6 +1086,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N10" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1119,6 +1151,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1181,6 +1216,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1243,6 +1281,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1305,6 +1346,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1367,6 +1411,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N15" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1429,6 +1476,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1491,6 +1541,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1553,6 +1606,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1615,6 +1671,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N19" t="n">
+        <v>0.5384615384615384</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1677,6 +1736,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N20" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1739,6 +1801,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1801,6 +1866,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N22" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1863,6 +1931,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1925,6 +1996,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1987,6 +2061,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N25" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2049,6 +2126,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2111,6 +2191,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2173,6 +2256,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2235,6 +2321,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2297,6 +2386,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2359,6 +2451,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2421,6 +2516,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2483,6 +2581,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2545,6 +2646,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2607,6 +2711,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2669,6 +2776,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2731,6 +2841,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2793,6 +2906,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2855,6 +2971,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2917,6 +3036,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2979,6 +3101,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3041,6 +3166,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3103,6 +3231,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3165,6 +3296,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3227,6 +3361,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3289,6 +3426,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3351,6 +3491,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3413,6 +3556,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3475,6 +3621,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3537,6 +3686,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3599,6 +3751,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3661,6 +3816,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3723,6 +3881,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3785,6 +3946,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3847,6 +4011,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3909,6 +4076,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3971,6 +4141,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4033,6 +4206,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4095,6 +4271,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4157,6 +4336,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4219,6 +4401,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4281,6 +4466,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4343,6 +4531,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4405,6 +4596,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4467,6 +4661,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4529,6 +4726,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4591,6 +4791,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4653,6 +4856,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4715,6 +4921,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4777,6 +4986,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4839,6 +5051,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4901,6 +5116,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4963,6 +5181,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5025,6 +5246,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5087,6 +5311,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5149,6 +5376,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5211,6 +5441,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5273,6 +5506,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5335,6 +5571,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5397,6 +5636,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5459,6 +5701,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5521,6 +5766,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5583,6 +5831,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5645,6 +5896,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5707,6 +5961,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5769,6 +6026,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5831,6 +6091,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5893,6 +6156,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5955,6 +6221,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6017,6 +6286,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6079,6 +6351,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6141,6 +6416,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6203,6 +6481,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6265,6 +6546,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6327,6 +6611,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6389,6 +6676,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6451,6 +6741,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6513,6 +6806,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6575,6 +6871,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6637,6 +6936,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6699,6 +7001,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6761,6 +7066,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6823,6 +7131,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6885,6 +7196,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6947,6 +7261,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7009,6 +7326,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7071,6 +7391,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7133,6 +7456,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7195,6 +7521,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7257,6 +7586,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7319,6 +7651,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7381,6 +7716,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7443,6 +7781,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7505,6 +7846,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7567,6 +7911,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7629,6 +7976,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7691,6 +8041,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7753,6 +8106,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7815,6 +8171,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7877,6 +8236,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7939,6 +8301,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8001,6 +8366,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8063,6 +8431,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8125,6 +8496,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8187,6 +8561,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8249,6 +8626,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8311,6 +8691,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8373,6 +8756,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8435,6 +8821,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8497,6 +8886,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8559,6 +8951,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8621,6 +9016,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8683,6 +9081,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8745,6 +9146,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8807,6 +9211,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8869,6 +9276,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8931,6 +9341,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8993,6 +9406,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9055,6 +9471,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9117,6 +9536,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9179,6 +9601,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9241,6 +9666,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9303,6 +9731,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9365,6 +9796,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9427,6 +9861,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9489,6 +9926,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9551,6 +9991,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9613,6 +10056,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9675,6 +10121,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9737,6 +10186,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9799,6 +10251,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9861,6 +10316,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9923,6 +10381,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9985,6 +10446,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10047,6 +10511,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10109,6 +10576,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10171,6 +10641,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10233,6 +10706,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10295,6 +10771,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10357,6 +10836,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10419,6 +10901,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10481,6 +10966,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10543,6 +11031,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10605,6 +11096,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10667,6 +11161,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10729,6 +11226,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10791,6 +11291,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10853,6 +11356,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10915,6 +11421,9 @@
           <t>LaunchApplication</t>
         </is>
       </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10976,6 +11485,9 @@
         <is>
           <t>LaunchApplication</t>
         </is>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
